--- a/IBM&JRI合同Mapping表.xlsx
+++ b/IBM&JRI合同Mapping表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chokkint/Desktop/Chokkint_NAS/work/SMBC/SOW/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chokkint/workC/NewPythonWebApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
   <si>
     <t>合同号</t>
     <rPh sb="0" eb="1">
@@ -426,6 +426,10 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1087,61 +1091,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1512,7 +1516,7 @@
   <dimension ref="B2:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1749,7 +1753,9 @@
       <c r="K9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -2522,26 +2528,26 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="68">
         <v>1</v>
       </c>
       <c r="D3" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="58">
         <f>J3+J6</f>
         <v>852000</v>
       </c>
       <c r="G3" s="18">
         <v>1</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="60" t="s">
         <v>30</v>
       </c>
       <c r="I3" s="19" t="s">
@@ -2555,15 +2561,15 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="51"/>
-      <c r="C4" s="53"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="58"/>
       <c r="G4" s="18">
         <v>2</v>
       </c>
-      <c r="H4" s="57"/>
+      <c r="H4" s="60"/>
       <c r="I4" s="19" t="s">
         <v>32</v>
       </c>
@@ -2575,24 +2581,24 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="51"/>
-      <c r="C5" s="53">
+      <c r="B5" s="50"/>
+      <c r="C5" s="68">
         <v>2</v>
       </c>
       <c r="D5" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="58">
         <f>J4+J7</f>
         <v>1136000</v>
       </c>
       <c r="G5" s="18">
         <v>3</v>
       </c>
-      <c r="H5" s="57"/>
+      <c r="H5" s="60"/>
       <c r="I5" s="19" t="s">
         <v>35</v>
       </c>
@@ -2604,15 +2610,15 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="51"/>
-      <c r="C6" s="53"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="54"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="18">
         <v>4</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="60" t="s">
         <v>37</v>
       </c>
       <c r="I6" s="19" t="s">
@@ -2626,24 +2632,24 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="51"/>
-      <c r="C7" s="53">
+      <c r="B7" s="50"/>
+      <c r="C7" s="68">
         <v>3</v>
       </c>
       <c r="D7" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="58">
         <f>J5+J8</f>
         <v>852000</v>
       </c>
       <c r="G7" s="18">
         <v>5</v>
       </c>
-      <c r="H7" s="57"/>
+      <c r="H7" s="60"/>
       <c r="I7" s="19" t="s">
         <v>32</v>
       </c>
@@ -2655,15 +2661,15 @@
       </c>
     </row>
     <row r="8" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="51"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="22">
         <v>6</v>
       </c>
-      <c r="H8" s="58"/>
+      <c r="H8" s="63"/>
       <c r="I8" s="23" t="s">
         <v>35</v>
       </c>
@@ -2675,7 +2681,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="52"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="26"/>
       <c r="D9" s="27" t="s">
         <v>40</v>
@@ -2697,26 +2703,26 @@
       <c r="K9" s="31"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="52">
         <v>1</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="E10" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="66">
+      <c r="F10" s="57">
         <f>J10+J12</f>
         <v>621719.6</v>
       </c>
       <c r="G10" s="32">
         <v>8</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="59" t="s">
         <v>43</v>
       </c>
       <c r="I10" s="33" t="s">
@@ -2730,15 +2736,15 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="51"/>
-      <c r="C11" s="63"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="18">
         <v>9</v>
       </c>
-      <c r="H11" s="57"/>
+      <c r="H11" s="60"/>
       <c r="I11" s="19" t="s">
         <v>44</v>
       </c>
@@ -2750,24 +2756,24 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="51"/>
-      <c r="C12" s="59">
+      <c r="B12" s="50"/>
+      <c r="C12" s="61">
         <v>2</v>
       </c>
       <c r="D12" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="58">
         <f>J11+J13</f>
         <v>703151.4</v>
       </c>
       <c r="G12" s="18">
         <v>10</v>
       </c>
-      <c r="H12" s="57" t="s">
+      <c r="H12" s="60" t="s">
         <v>37</v>
       </c>
       <c r="I12" s="19" t="s">
@@ -2781,15 +2787,15 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="51"/>
-      <c r="C13" s="68"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="58"/>
       <c r="G13" s="18">
         <v>11</v>
       </c>
-      <c r="H13" s="57"/>
+      <c r="H13" s="60"/>
       <c r="I13" s="19" t="s">
         <v>46</v>
       </c>
@@ -2801,24 +2807,24 @@
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
-      <c r="C14" s="59">
+      <c r="B14" s="50"/>
+      <c r="C14" s="61">
         <v>3</v>
       </c>
       <c r="D14" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="58">
         <f>J14+J15</f>
         <v>747529</v>
       </c>
       <c r="G14" s="18">
         <v>12</v>
       </c>
-      <c r="H14" s="57"/>
+      <c r="H14" s="60"/>
       <c r="I14" s="19" t="s">
         <v>49</v>
       </c>
@@ -2830,15 +2836,15 @@
       </c>
     </row>
     <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="51"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="62"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="66"/>
       <c r="G15" s="22">
         <v>13</v>
       </c>
-      <c r="H15" s="58"/>
+      <c r="H15" s="63"/>
       <c r="I15" s="23" t="s">
         <v>51</v>
       </c>
@@ -2850,7 +2856,7 @@
       </c>
     </row>
     <row r="16" spans="2:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="52"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26"/>
       <c r="D16" s="36" t="s">
         <v>40</v>
@@ -2873,6 +2879,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="B10:B16"/>
     <mergeCell ref="C10:C11"/>
@@ -2889,22 +2911,6 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IBM&JRI合同Mapping表.xlsx
+++ b/IBM&JRI合同Mapping表.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
   <si>
     <t>合同号</t>
     <rPh sb="0" eb="1">
@@ -426,10 +426,6 @@
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1091,61 +1087,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1516,7 +1512,7 @@
   <dimension ref="B2:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1753,9 +1749,7 @@
       <c r="K9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="L9" s="3"/>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -2528,26 +2522,26 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="68">
+      <c r="C3" s="53">
         <v>1</v>
       </c>
       <c r="D3" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="56">
         <f>J3+J6</f>
         <v>852000</v>
       </c>
       <c r="G3" s="18">
         <v>1</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="57" t="s">
         <v>30</v>
       </c>
       <c r="I3" s="19" t="s">
@@ -2561,15 +2555,15 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="50"/>
-      <c r="C4" s="68"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="54"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="58"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
       <c r="G4" s="18">
         <v>2</v>
       </c>
-      <c r="H4" s="60"/>
+      <c r="H4" s="57"/>
       <c r="I4" s="19" t="s">
         <v>32</v>
       </c>
@@ -2581,24 +2575,24 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="50"/>
-      <c r="C5" s="68">
+      <c r="B5" s="51"/>
+      <c r="C5" s="53">
         <v>2</v>
       </c>
       <c r="D5" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="58">
+      <c r="F5" s="56">
         <f>J4+J7</f>
         <v>1136000</v>
       </c>
       <c r="G5" s="18">
         <v>3</v>
       </c>
-      <c r="H5" s="60"/>
+      <c r="H5" s="57"/>
       <c r="I5" s="19" t="s">
         <v>35</v>
       </c>
@@ -2610,15 +2604,15 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="50"/>
-      <c r="C6" s="68"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="54"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="58"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
       <c r="G6" s="18">
         <v>4</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="57" t="s">
         <v>37</v>
       </c>
       <c r="I6" s="19" t="s">
@@ -2632,24 +2626,24 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="50"/>
-      <c r="C7" s="68">
+      <c r="B7" s="51"/>
+      <c r="C7" s="53">
         <v>3</v>
       </c>
       <c r="D7" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="58">
+      <c r="F7" s="56">
         <f>J5+J8</f>
         <v>852000</v>
       </c>
       <c r="G7" s="18">
         <v>5</v>
       </c>
-      <c r="H7" s="60"/>
+      <c r="H7" s="57"/>
       <c r="I7" s="19" t="s">
         <v>32</v>
       </c>
@@ -2661,15 +2655,15 @@
       </c>
     </row>
     <row r="8" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="50"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="22">
         <v>6</v>
       </c>
-      <c r="H8" s="63"/>
+      <c r="H8" s="58"/>
       <c r="I8" s="23" t="s">
         <v>35</v>
       </c>
@@ -2681,7 +2675,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="51"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="26"/>
       <c r="D9" s="27" t="s">
         <v>40</v>
@@ -2703,26 +2697,26 @@
       <c r="K9" s="31"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="63">
         <v>1</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="57">
+      <c r="F10" s="66">
         <f>J10+J12</f>
         <v>621719.6</v>
       </c>
       <c r="G10" s="32">
         <v>8</v>
       </c>
-      <c r="H10" s="59" t="s">
+      <c r="H10" s="67" t="s">
         <v>43</v>
       </c>
       <c r="I10" s="33" t="s">
@@ -2736,15 +2730,15 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="50"/>
-      <c r="C11" s="52"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="54"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="58"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56"/>
       <c r="G11" s="18">
         <v>9</v>
       </c>
-      <c r="H11" s="60"/>
+      <c r="H11" s="57"/>
       <c r="I11" s="19" t="s">
         <v>44</v>
       </c>
@@ -2756,24 +2750,24 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="50"/>
-      <c r="C12" s="61">
+      <c r="B12" s="51"/>
+      <c r="C12" s="59">
         <v>2</v>
       </c>
       <c r="D12" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="58">
+      <c r="F12" s="56">
         <f>J11+J13</f>
         <v>703151.4</v>
       </c>
       <c r="G12" s="18">
         <v>10</v>
       </c>
-      <c r="H12" s="60" t="s">
+      <c r="H12" s="57" t="s">
         <v>37</v>
       </c>
       <c r="I12" s="19" t="s">
@@ -2787,15 +2781,15 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
-      <c r="C13" s="62"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="54"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="58"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56"/>
       <c r="G13" s="18">
         <v>11</v>
       </c>
-      <c r="H13" s="60"/>
+      <c r="H13" s="57"/>
       <c r="I13" s="19" t="s">
         <v>46</v>
       </c>
@@ -2807,24 +2801,24 @@
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="50"/>
-      <c r="C14" s="61">
+      <c r="B14" s="51"/>
+      <c r="C14" s="59">
         <v>3</v>
       </c>
       <c r="D14" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="58">
+      <c r="F14" s="56">
         <f>J14+J15</f>
         <v>747529</v>
       </c>
       <c r="G14" s="18">
         <v>12</v>
       </c>
-      <c r="H14" s="60"/>
+      <c r="H14" s="57"/>
       <c r="I14" s="19" t="s">
         <v>49</v>
       </c>
@@ -2836,15 +2830,15 @@
       </c>
     </row>
     <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="50"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="66"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="22">
         <v>13</v>
       </c>
-      <c r="H15" s="63"/>
+      <c r="H15" s="58"/>
       <c r="I15" s="23" t="s">
         <v>51</v>
       </c>
@@ -2856,7 +2850,7 @@
       </c>
     </row>
     <row r="16" spans="2:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="51"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="26"/>
       <c r="D16" s="36" t="s">
         <v>40</v>
@@ -2879,6 +2873,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="C3:C4"/>
@@ -2895,22 +2905,6 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
